--- a/execute time for partial model and single line model.xlsx
+++ b/execute time for partial model and single line model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\出国\broad\加拿大\蒙特利尔大学\课程书\IFT6755\project\final presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\出国\broad\加拿大\蒙特利尔大学\课程书\IFT6755\project\final presentation\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CA7EC-A973-4914-AE81-73CD2D96C18D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25247525-03D5-4EAE-AF55-44CA89C7E702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solve" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="12">
-  <si>
-    <t>time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
   <si>
     <t>single 1</t>
   </si>
@@ -65,17 +62,47 @@
     <t>ms</t>
   </si>
   <si>
-    <t>average</t>
+    <t>times</t>
   </si>
   <si>
-    <t>total</t>
+    <t xml:space="preserve"> which is &lt; 0.05, so the difference is significant</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Comparison of solving time between the sum of single line and partial model</t>
+  </si>
+  <si>
+    <t>Comparison of generation time between the sum of single line and partial model</t>
+  </si>
+  <si>
+    <t>Comparison of total execusion time between the sum of single line and partial model</t>
+  </si>
+  <si>
+    <t>which is &lt; 0.01, so the difference is extremely significant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,19 +116,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -110,8 +189,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +216,3816 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of solving time between the sum of single line and partial model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solve!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single 1_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solve!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57C1-4C58-B967-1883CAAF595B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solve!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solve!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57C1-4C58-B967-1883CAAF595B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1875038032"/>
+        <c:axId val="1986978400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1875038032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Test times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986978400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986978400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Value of solving time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875038032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparision of excusion generation time between the sum of single line and partial model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>generate!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single 1_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>generate!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE6C-4A66-8C85-6B77BBC37AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>generate!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>generate!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE6C-4A66-8C85-6B77BBC37AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="79789136"/>
+        <c:axId val="1886511728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="79789136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Test times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886511728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886511728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Value of generation time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79789136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison of total execusion time between the sum of single line and partial model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solve_generate!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single 1_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solve_generate!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52FB-49BB-918C-73503BFF1531}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solve_generate!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solve_generate!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52FB-49BB-918C-73503BFF1531}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66834032"/>
+        <c:axId val="1886409248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66834032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Test times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886409248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886409248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Value of total time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66834032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970D75DF-9E3D-45B3-A49E-CCE6EE5E5E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549274</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F08B48-4C14-40F3-A5E6-F028796BA16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0460092D-FA07-47AC-9D92-5E45242B8D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,49 +4291,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="21.6328125" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="48.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -459,12 +4363,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -489,12 +4393,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -518,13 +4422,16 @@
       <c r="I4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -549,12 +4456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -579,12 +4486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -609,12 +4516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -638,13 +4545,16 @@
       <c r="I8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -668,13 +4578,23 @@
       <c r="I9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -698,13 +4618,22 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1">
+        <v>18.066666666666666</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -728,13 +4657,22 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1">
+        <v>242.13333333333333</v>
+      </c>
+      <c r="N11" s="1">
+        <v>64.506896551724139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -758,13 +4696,22 @@
       <c r="I12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -788,13 +4735,23 @@
       <c r="I13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7">
+        <v>9.2174355134172817E-4</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -819,12 +4776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -849,12 +4806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -879,12 +4836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -909,12 +4866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -939,12 +4896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -968,13 +4925,15 @@
       <c r="I19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -999,12 +4958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -1029,12 +4988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1059,12 +5018,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -1089,12 +5048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1119,12 +5078,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1149,12 +5108,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1179,12 +5138,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1209,12 +5168,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1239,12 +5198,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1269,12 +5228,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1299,12 +5258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1332,54 +5291,61 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F86504F-AD42-4429-97B4-D78AD85B8E44}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="39.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>109</v>
@@ -1404,12 +5370,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>31</v>
@@ -1434,12 +5400,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>32</v>
@@ -1463,13 +5429,16 @@
       <c r="I4">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1494,12 +5463,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1524,12 +5493,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1553,13 +5522,16 @@
       <c r="I7">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1583,13 +5555,23 @@
       <c r="I8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1613,13 +5595,22 @@
       <c r="I9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>34.266666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1643,13 +5634,22 @@
       <c r="I10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10631.596551724138</v>
+      </c>
+      <c r="M10" s="1">
+        <v>501.65057471264373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1673,13 +5673,22 @@
       <c r="I11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1703,13 +5712,23 @@
       <c r="I12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3.1602962581563115E-2</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -1733,13 +5752,17 @@
       <c r="I13">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1763,13 +5786,16 @@
       <c r="I14">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1793,13 +5819,16 @@
       <c r="I15">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -1823,13 +5852,16 @@
       <c r="I16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1853,13 +5885,16 @@
       <c r="I17">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1884,12 +5919,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1914,12 +5949,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1944,12 +5979,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1974,12 +6009,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -2004,12 +6039,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2034,12 +6069,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -2064,12 +6099,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2094,12 +6129,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2124,12 +6159,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2154,12 +6189,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2184,12 +6219,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2214,12 +6249,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -2244,12 +6279,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2276,39 +6311,47 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674CFEC-A6E9-4338-A6BA-C91C8726B369}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="9" max="9" width="39.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>662</v>
@@ -2317,12 +6360,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>228</v>
@@ -2331,12 +6374,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>149</v>
@@ -2345,12 +6388,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>120</v>
@@ -2359,12 +6402,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>82</v>
@@ -2372,13 +6415,16 @@
       <c r="D6">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>104</v>
@@ -2386,13 +6432,23 @@
       <c r="D7">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>105</v>
@@ -2400,13 +6456,23 @@
       <c r="D8">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>94.766666666666666</v>
+      </c>
+      <c r="H8" s="1">
+        <v>41.166666666666664</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>92</v>
@@ -2414,13 +6480,23 @@
       <c r="D9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13126.322988505746</v>
+      </c>
+      <c r="H9" s="1">
+        <v>595.59195402298838</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>111</v>
@@ -2428,13 +6504,23 @@
       <c r="D10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>88</v>
@@ -2442,13 +6528,23 @@
       <c r="D11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.5029802545665188E-2</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>56</v>
@@ -2456,13 +6552,14 @@
       <c r="D12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>66</v>
@@ -2471,12 +6568,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>68</v>
@@ -2485,12 +6582,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>91</v>
@@ -2499,12 +6596,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>53</v>
@@ -2518,7 +6615,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>61</v>
@@ -2532,7 +6629,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -2546,7 +6643,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>33</v>
@@ -2560,7 +6657,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>40</v>
@@ -2574,7 +6671,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -2588,7 +6685,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>55</v>
@@ -2602,7 +6699,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>55</v>
@@ -2616,7 +6713,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>68</v>
@@ -2630,7 +6727,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>37</v>
@@ -2644,7 +6741,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>52</v>
@@ -2658,7 +6755,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>23</v>
@@ -2672,7 +6769,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>44</v>
@@ -2686,7 +6783,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>55</v>
@@ -2700,7 +6797,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>82</v>
@@ -2714,7 +6811,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>47</v>
@@ -2723,39 +6820,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <f>SUM(C2:C31)</f>
-        <v>2843</v>
-      </c>
-      <c r="D32">
-        <f>SUM(D2:D31)</f>
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <f>C32/30</f>
-        <v>94.766666666666666</v>
-      </c>
-      <c r="D33">
-        <f>D32/30</f>
-        <v>41.166666666666664</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>